--- a/kirama.xlsx
+++ b/kirama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>399.9689174698162</v>
+        <v>399.93332859065384</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>400.92584939379446</v>
+        <v>400.9546583500195</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>403.0894562558807</v>
+        <v>403.2059590966878</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>406.10513023871033</v>
+        <v>406.22802465044475</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>409.6779084941407</v>
+        <v>409.7647235227071</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>413.45911139571064</v>
+        <v>413.51356691781444</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>416.6152301121227</v>
+        <v>416.6344230221554</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>418.89767021889145</v>
+        <v>418.8817498741294</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>421.04800422692045</v>
+        <v>420.9998924963877</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>423.7205430675734</v>
+        <v>423.64783939541434</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>427.1548592751552</v>
+        <v>427.06388675890753</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>432.1305137109938</v>
+        <v>432.04363835698456</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>436.3979395331988</v>
+        <v>436.35523813255816</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>437.79732461305423</v>
+        <v>437.82093226249117</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>439.92515462859546</v>
+        <v>440.05239359832177</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>443.9449833467123</v>
+        <v>444.07676426916805</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>448.7034448981178</v>
+        <v>448.79196559993545</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>452.9964116841976</v>
+        <v>453.04918303493093</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>456.96367230721796</v>
+        <v>456.9791677935574</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>460.7653899752881</v>
+        <v>460.7445464122675</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>463.97719375605465</v>
+        <v>463.92315504283584</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>466.41355973074195</v>
+        <v>466.3343866869355</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>469.6715434931059</v>
+        <v>469.5725278300488</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>474.2380151739876</v>
+        <v>474.1431549470383</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>478.7109710888465</v>
+        <v>478.6626582044658</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>481.659902576715</v>
+        <v>481.685390587138</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>484.4707134731587</v>
+        <v>484.6271184107379</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>488.57899796979655</v>
+        <v>488.73797745689035</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>493.66822153265025</v>
+        <v>493.7693746884789</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>498.98876728516757</v>
+        <v>499.0455175436668</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>503.9834550874199</v>
+        <v>503.99564323101674</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>508.0369903929196</v>
+        <v>508.00669391581766</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>511.2575959143198</v>
+        <v>511.18884464050024</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>513.4865472098297</v>
+        <v>513.3888930347799</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>516.4871634037976</v>
+        <v>516.3653187616368</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>521.7466883721348</v>
+        <v>521.6293211844445</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>526.6872573993259</v>
+        <v>526.6251528805983</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>529.004191138665</v>
+        <v>529.0341584656785</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>532.6139688363721</v>
+        <v>532.8237807999861</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>537.6450478647622</v>
+        <v>537.8556627578552</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>542.6371333219943</v>
+        <v>542.7650302828395</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>547.070600157203</v>
+        <v>547.1379344664902</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>551.2235278827418</v>
+        <v>551.2321880730867</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>554.7366426216547</v>
+        <v>554.6906306166443</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>557.0248402033405</v>
+        <v>556.92988495233</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>558.138695727361</v>
+        <v>558.0073374932472</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>561.60830478649</v>
+        <v>561.4447149552435</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>568.4783040457016</v>
+        <v>568.3197940715542</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>574.6614379877875</v>
+        <v>574.5747288780135</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>576.92093252626</v>
+        <v>576.9587617705561</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>580.6885340492062</v>
+        <v>580.9853451090845</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>586.8340670873141</v>
+        <v>587.1297897834386</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>594.0386936511924</v>
+        <v>594.2129849766275</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>601.1109912503138</v>
+        <v>601.1985620556366</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>606.9411813500626</v>
+        <v>606.9457113953629</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>610.7809671985218</v>
+        <v>610.7089001837608</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>614.2583426374176</v>
+        <v>614.1232705160612</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>618.1704513790752</v>
+        <v>617.9620879349786</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>622.9596921840242</v>
+        <v>622.741570951638</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>634.6663302033442</v>
+        <v>634.4160071078587</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>645.5263956639147</v>
+        <v>645.4007111450965</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>655.9640356088637</v>
+        <v>656.0172284201597</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>669.0877440775828</v>
+        <v>669.5488309540382</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>684.4267958365941</v>
+        <v>684.8895625878916</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>702.3888923249605</v>
+        <v>702.6597833877966</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>722.8914184310045</v>
+        <v>723.0251751278723</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>747.5532138404137</v>
+        <v>747.5526962036942</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>775.0547178038195</v>
+        <v>774.9244673903992</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>805.0378871943319</v>
+        <v>804.7847699618358</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>840.3330126418392</v>
+        <v>839.9737851920007</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>877.9877651510054</v>
+        <v>877.6048920816953</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>914.664338977842</v>
+        <v>914.066668195688</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>951.1188095631145</v>
+        <v>950.8492088453594</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1026.980271162518</v>
+        <v>1027.2310071374084</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1054.18933726981</v>
+        <v>1054.9657345572327</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1111.5049455809758</v>
+        <v>1112.6288879887875</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1172.6159067774174</v>
+        <v>1173.2437452020033</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1240.4078721645387</v>
+        <v>1240.7322981611685</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1319.0889271651886</v>
+        <v>1319.1021842120044</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1410.323207535909</v>
+        <v>1410.0198463084787</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1514.5075688201239</v>
+        <v>1513.8862678000403</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1636.467455571907</v>
+        <v>1635.5452225000136</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1761.2612034448614</v>
+        <v>1760.1294700746612</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1880.0914369956924</v>
+        <v>1878.4881668841688</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1989.2986932217473</v>
+        <v>1988.7069494315595</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2168.7102473588375</v>
+        <v>2168.2565715221613</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2326.8499439121074</v>
+        <v>2329.9500928333805</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2483.147877468454</v>
+        <v>2486.4011199117517</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2634.2984428554046</v>
+        <v>2636.2859209944527</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2791.342204597399</v>
+        <v>2792.413380165177</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2954.7869153802203</v>
+        <v>2954.909400238956</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3141.156850784247</v>
+        <v>3140.3206849988997</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3349.707390101637</v>
+        <v>3347.921383264501</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3557.2675208247715</v>
+        <v>3554.6131609035856</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3748.015110933348</v>
+        <v>3744.546790651401</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3923.279111859554</v>
+        <v>3919.5858784399634</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4104.069519231467</v>
+        <v>4103.230263890933</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4348.144378453863</v>
+        <v>4340.807783185053</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>4578.123880903928</v>
+        <v>4548.2033080274305</v>
       </c>
     </row>
     <row r="101">
@@ -872,103 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4766.711487011463</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>45748.0</v>
-      </c>
-      <c r="B102" t="n">
-        <v>4956.974232197423</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>45778.0</v>
-      </c>
-      <c r="B103" t="n">
-        <v>5157.086990446082</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>45809.0</v>
-      </c>
-      <c r="B104" t="n">
-        <v>5364.122380113403</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>45839.0</v>
-      </c>
-      <c r="B105" t="n">
-        <v>5578.2211956803885</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>45870.0</v>
-      </c>
-      <c r="B106" t="n">
-        <v>5799.519694349019</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>45901.0</v>
-      </c>
-      <c r="B107" t="n">
-        <v>6028.148929578463</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>45931.0</v>
-      </c>
-      <c r="B108" t="n">
-        <v>6264.234052405225</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>45962.0</v>
-      </c>
-      <c r="B109" t="n">
-        <v>6507.893581143641</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>45992.0</v>
-      </c>
-      <c r="B110" t="n">
-        <v>6759.2386402175</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>46023.0</v>
-      </c>
-      <c r="B111" t="n">
-        <v>7018.372169066336</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>46054.0</v>
-      </c>
-      <c r="B112" t="n">
-        <v>7285.388102268802</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>46082.0</v>
-      </c>
-      <c r="B113" t="n">
-        <v>7560.37052225702</v>
+        <v>4737.437526545433</v>
       </c>
     </row>
   </sheetData>

--- a/kirama.xlsx
+++ b/kirama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>399.93332859065384</v>
+        <v>399.939809893492</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>400.9546583500195</v>
+        <v>400.9681791112437</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>403.2059590966878</v>
+        <v>403.2403288619908</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>406.22802465044475</v>
+        <v>406.27762572596015</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>409.7647235227071</v>
+        <v>409.79719481127313</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>413.51356691781444</v>
+        <v>413.5233054371144</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>416.6344230221554</v>
+        <v>416.62895730621887</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>418.8817498741294</v>
+        <v>418.8654272730359</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>420.9998924963877</v>
+        <v>420.97710298139475</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>423.64783939541434</v>
+        <v>423.6234574500875</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>427.06388675890753</v>
+        <v>427.04214939866864</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>432.04363835698456</v>
+        <v>432.0314725439117</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>436.35523813255816</v>
+        <v>436.3602001188901</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>437.82093226249117</v>
+        <v>437.83821033696154</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>440.05239359832177</v>
+        <v>440.0938355083611</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>444.07676426916805</v>
+        <v>444.1368437512174</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>448.79196559993545</v>
+        <v>448.8309164752626</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>453.04918303493093</v>
+        <v>453.05995449812303</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>456.9791677935574</v>
+        <v>456.97097601379386</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>460.7445464122675</v>
+        <v>460.72270427464275</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>463.92315504283584</v>
+        <v>463.8931326172536</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>466.3343866869355</v>
+        <v>466.3024169080888</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>469.5725278300488</v>
+        <v>469.5440256048685</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>474.1431549470383</v>
+        <v>474.1268951170209</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>478.6626582044658</v>
+        <v>478.6680952255469</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>481.685390587138</v>
+        <v>481.7073265030065</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>484.6271184107379</v>
+        <v>484.68200450224424</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>488.73797745689035</v>
+        <v>488.8179413623934</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>493.7693746884789</v>
+        <v>493.82052282513763</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>499.0455175436668</v>
+        <v>499.05829656016687</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>503.99564323101674</v>
+        <v>503.98244652321563</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>508.00669391581766</v>
+        <v>507.97475476078137</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>511.18884464050024</v>
+        <v>511.1456891695431</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>513.3888930347799</v>
+        <v>513.3431246121537</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>516.3653187616368</v>
+        <v>516.3244561242033</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>521.6293211844445</v>
+        <v>521.6053974912389</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>526.6251528805983</v>
+        <v>526.631181033002</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>529.0341584656785</v>
+        <v>529.0637116292684</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>532.8237807999861</v>
+        <v>532.9009304276458</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>537.8556627578552</v>
+        <v>537.9688840307505</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>542.7650302828395</v>
+        <v>542.836496838466</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>547.1379344664902</v>
+        <v>547.1539476050326</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>551.2321880730867</v>
+        <v>551.2107479381223</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>554.6906306166443</v>
+        <v>554.6422402686279</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>556.92988495233</v>
+        <v>556.865479280315</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>558.0073374932472</v>
+        <v>557.9393544341018</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>561.4447149552435</v>
+        <v>561.3838286480577</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>568.3197940715542</v>
+        <v>568.2832665760183</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>574.5747288780135</v>
+        <v>574.5814204155441</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>576.9587617705561</v>
+        <v>577.0001202535242</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>580.9853451090845</v>
+        <v>581.0972547804446</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>587.1297897834386</v>
+        <v>587.2951589045397</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>594.2129849766275</v>
+        <v>594.3166456007243</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>601.1985620556366</v>
+        <v>601.2197242271174</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>606.9457113953629</v>
+        <v>606.9107515589994</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>610.7089001837608</v>
+        <v>610.6335011622779</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>614.1232705160612</v>
+        <v>614.0249852357547</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>617.9620879349786</v>
+        <v>617.8528086561042</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>622.741570951638</v>
+        <v>622.6517754317828</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>634.4160071078587</v>
+        <v>634.353833146352</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>645.4007111450965</v>
+        <v>645.4098486890238</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>656.0172284201597</v>
+        <v>656.0795499190233</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>669.5488309540382</v>
+        <v>669.724681686849</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>684.8895625878916</v>
+        <v>685.153816021166</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>702.6597833877966</v>
+        <v>702.8265032021332</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>723.0251751278723</v>
+        <v>723.0572092016312</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>747.5526962036942</v>
+        <v>747.4896325268852</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>774.9244673903992</v>
+        <v>774.7883129007179</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>804.7847699618358</v>
+        <v>804.600382494271</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>839.9737851920007</v>
+        <v>839.7707360510648</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>877.6048920816953</v>
+        <v>877.4274073938437</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>914.066668195688</v>
+        <v>913.9012619963249</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>950.8492088453594</v>
+        <v>950.9316573170222</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1027.2310071374084</v>
+        <v>1027.2893149562558</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1054.9657345572327</v>
+        <v>1055.390743868997</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1112.6288879887875</v>
+        <v>1113.2109922564282</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1173.2437452020033</v>
+        <v>1173.6294202302288</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1240.7322981611685</v>
+        <v>1240.8054697051828</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1319.1021842120044</v>
+        <v>1318.9428532918832</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1410.0198463084787</v>
+        <v>1409.6697647095398</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1513.8862678000403</v>
+        <v>1513.3980961603327</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1635.5452225000136</v>
+        <v>1634.9884757468562</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1760.1294700746612</v>
+        <v>1759.6099990041625</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1878.4881668841688</v>
+        <v>1878.0664420919727</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1988.7069494315595</v>
+        <v>1988.7906450966718</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2168.2565715221613</v>
+        <v>2168.568939461281</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2329.9500928333805</v>
+        <v>2331.150314516667</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2486.4011199117517</v>
+        <v>2488.2526245926615</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2636.2859209944527</v>
+        <v>2637.4909710788725</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2792.413380165177</v>
+        <v>2792.6359555198405</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2954.909400238956</v>
+        <v>2954.401923945344</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3140.3206849988997</v>
+        <v>3139.2212635953097</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3347.921383264501</v>
+        <v>3346.4026999690504</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3554.6131609035856</v>
+        <v>3552.910961816515</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3744.546790651401</v>
+        <v>3742.941401258098</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3919.5858784399634</v>
+        <v>3918.5001260834406</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4103.230263890933</v>
+        <v>4103.124444195572</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4340.807783185053</v>
+        <v>4341.864094849108</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>4548.2033080274305</v>
+        <v>4550.227632637222</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,15 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4737.437526545433</v>
+        <v>4743.56571179545</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45748.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4962.01548310812</v>
       </c>
     </row>
   </sheetData>

--- a/kirama.xlsx
+++ b/kirama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>399.939809893492</v>
+        <v>399.93930762797095</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>400.9681791112437</v>
+        <v>400.9931940764918</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>403.2403288619908</v>
+        <v>403.30969851718083</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>406.27762572596015</v>
+        <v>406.379678851268</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>409.79719481127313</v>
+        <v>409.86584573389007</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>413.5233054371144</v>
+        <v>413.54598609784676</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>416.62895730621887</v>
+        <v>416.62086839348325</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>418.8654272730359</v>
+        <v>418.8351823901611</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>420.97710298139475</v>
+        <v>420.93355613359</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>423.6234574500875</v>
+        <v>423.57583962786</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>427.04214939866864</v>
+        <v>426.9995903126149</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>432.0314725439117</v>
+        <v>432.00437282422797</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>436.3602001188901</v>
+        <v>436.3595549953366</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>437.83821033696154</v>
+        <v>437.86987445367805</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>440.0938355083611</v>
+        <v>440.1783871328867</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>444.1368437512174</v>
+        <v>444.2607049276304</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>448.8309164752626</v>
+        <v>448.9130291114807</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>453.05995449812303</v>
+        <v>453.0846848090812</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>456.97097601379386</v>
+        <v>456.9570864666896</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>460.72270427464275</v>
+        <v>460.68087942859205</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>463.8931326172536</v>
+        <v>463.834557529445</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>466.3024169080888</v>
+        <v>466.23907220379056</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>469.5440256048685</v>
+        <v>469.48771322824956</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>474.1268951170209</v>
+        <v>474.0910821414922</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>478.6680952255469</v>
+        <v>478.66694202575604</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>481.7073265030065</v>
+        <v>481.7491921302667</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>484.68200450224424</v>
+        <v>484.7948700143056</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>488.8179413623934</v>
+        <v>488.9830389032375</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>493.82052282513763</v>
+        <v>493.92813142839174</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>499.05829656016687</v>
+        <v>499.08738718391095</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>503.98244652321563</v>
+        <v>503.95840018375367</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>507.97475476078137</v>
+        <v>507.91226563578687</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>511.1456891695431</v>
+        <v>511.06029779981236</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>513.3431246121537</v>
+        <v>513.2515397679458</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>516.3244561242033</v>
+        <v>516.2431890773547</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>521.6053974912389</v>
+        <v>521.5531559824946</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>526.631181033002</v>
+        <v>526.6278715559364</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>529.0637116292684</v>
+        <v>529.1215869819601</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>532.9009304276458</v>
+        <v>533.0603769460856</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>537.9688840307505</v>
+        <v>538.2028684039801</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>542.836496838466</v>
+        <v>542.9866750036978</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>547.1539476050326</v>
+        <v>547.1902867030888</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>551.2107479381223</v>
+        <v>551.1702512281219</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>554.6422402686279</v>
+        <v>554.5463867264467</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>556.865479280315</v>
+        <v>556.7369782512372</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>557.9393544341018</v>
+        <v>557.8025157316484</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>561.3838286480577</v>
+        <v>561.2622340288498</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>568.2832665760183</v>
+        <v>568.2039494100992</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>574.5814204155441</v>
+        <v>574.573621315756</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>577.0001202535242</v>
+        <v>577.0823368824583</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>581.0972547804446</v>
+        <v>581.3292247892294</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>587.2951589045397</v>
+        <v>587.637115834382</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>594.3166456007243</v>
+        <v>594.5343497615079</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>601.2197242271174</v>
+        <v>601.267786728928</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>606.9107515589994</v>
+        <v>606.8435144656701</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>610.6335011622779</v>
+        <v>610.4831442134262</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>614.0249852357547</v>
+        <v>613.8260619639066</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>617.8528086561042</v>
+        <v>617.6379206745532</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>622.6517754317828</v>
+        <v>622.4646662706128</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>634.353833146352</v>
+        <v>634.2257825632786</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>645.4098486890238</v>
+        <v>645.3943499391522</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>656.0795499190233</v>
+        <v>656.2043759594497</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>669.724681686849</v>
+        <v>670.0896975115515</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>685.153816021166</v>
+        <v>685.7003371377247</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>702.8265032021332</v>
+        <v>703.1764001055443</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>723.0572092016312</v>
+        <v>723.1299543228974</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>747.4896325268852</v>
+        <v>747.3669845702577</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>774.7883129007179</v>
+        <v>774.5155696814032</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>804.600382494271</v>
+        <v>804.2292998427561</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>839.7707360510648</v>
+        <v>839.3606009075162</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>877.4274073938437</v>
+        <v>877.0528717072335</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>913.9012619963249</v>
+        <v>913.6201410325001</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>950.9316573170222</v>
+        <v>950.9273722761549</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1027.2893149562558</v>
+        <v>1027.515358101128</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1055.390743868997</v>
+        <v>1056.2110991003046</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1113.2109922564282</v>
+        <v>1114.4354248712082</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1173.6294202302288</v>
+        <v>1174.4363768555722</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1240.8054697051828</v>
+        <v>1240.968480419985</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1318.9428532918832</v>
+        <v>1318.6273164016595</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1409.6697647095398</v>
+        <v>1408.9616798046231</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1513.3980961603327</v>
+        <v>1512.407003107247</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1634.9884757468562</v>
+        <v>1633.855455552202</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1759.6099990041625</v>
+        <v>1758.5343709101671</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1878.0664420919727</v>
+        <v>1877.2735766744977</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1988.7906450966718</v>
+        <v>1988.6797934208942</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2168.568939461281</v>
+        <v>2169.316301447427</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2331.150314516667</v>
+        <v>2333.612905005227</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2488.2526245926615</v>
+        <v>2492.1001863873153</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2637.4909710788725</v>
+        <v>2640.0154818054207</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2792.6359555198405</v>
+        <v>2793.1254930051073</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2954.401923945344</v>
+        <v>2953.38078941416</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3139.2212635953097</v>
+        <v>3136.9755985234046</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3346.4026999690504</v>
+        <v>3343.29189121598</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3552.910961816515</v>
+        <v>3549.4179928841936</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3742.941401258098</v>
+        <v>3739.6720445872347</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3918.5001260834406</v>
+        <v>3916.2035041431113</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4103.124444195572</v>
+        <v>4102.634864943294</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4341.864094849108</v>
+        <v>4344.022849114386</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>4550.227632637222</v>
+        <v>4554.4545277216685</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4743.56571179545</v>
+        <v>4756.336224665369</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>4962.01548310812</v>
+        <v>5005.553057417298</v>
       </c>
     </row>
   </sheetData>

--- a/kirama.xlsx
+++ b/kirama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>399.93930762797095</v>
+        <v>399.9805171186254</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>400.9931940764918</v>
+        <v>401.00227402363623</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>403.30969851718083</v>
+        <v>403.27137941007584</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>406.379678851268</v>
+        <v>406.26790426463054</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>409.86584573389007</v>
+        <v>409.6997298157967</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>413.54598609784676</v>
+        <v>413.4346081894154</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>416.62086839348325</v>
+        <v>416.58570060265333</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>418.8351823901611</v>
+        <v>418.85089631196666</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>420.93355613359</v>
+        <v>420.98593224834536</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>423.57583962786</v>
+        <v>423.65024046819906</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>426.9995903126149</v>
+        <v>427.0813310465609</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>432.00437282422797</v>
+        <v>432.0776205888526</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>436.3595549953366</v>
+        <v>436.40696010028233</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>437.86987445367805</v>
+        <v>437.8776618250837</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>440.1783871328867</v>
+        <v>440.1297580806591</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>444.2607049276304</v>
+        <v>444.1234917640929</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>448.9130291114807</v>
+        <v>448.7105664106498</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>453.0846848090812</v>
+        <v>452.9512007253856</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>456.9570864666896</v>
+        <v>456.9188739840417</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>460.68087942859205</v>
+        <v>460.70673040698097</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>463.834557529445</v>
+        <v>463.9067349120976</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>466.23907220379056</v>
+        <v>466.3387382653946</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>469.48771322824956</v>
+        <v>469.5959380486496</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>474.0910821414922</v>
+        <v>474.187337279034</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>478.66694202575604</v>
+        <v>478.72890890777927</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>481.7491921302667</v>
+        <v>481.75858238951463</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>484.7948700143056</v>
+        <v>484.7290121328696</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>488.9830389032375</v>
+        <v>488.79887532688423</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>493.92813142839174</v>
+        <v>493.6575023245392</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>499.08738718391095</v>
+        <v>498.9116416597362</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>503.95840018375367</v>
+        <v>503.91330272269585</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>507.91226563578687</v>
+        <v>507.95544291376285</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>511.06029779981236</v>
+        <v>511.1671912428488</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>513.2515397679458</v>
+        <v>513.3959209199228</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>516.2431890773547</v>
+        <v>516.3986091279206</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>521.5531559824946</v>
+        <v>521.6911745129131</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>526.6278715559364</v>
+        <v>526.7171199806872</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>529.1215869819601</v>
+        <v>529.1359022430561</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>533.0603769460856</v>
+        <v>532.9675171961084</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>538.2028684039801</v>
+        <v>537.940997187011</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>542.9866750036978</v>
+        <v>542.602378686267</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>547.1902867030888</v>
+        <v>546.94467475911</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>551.1702512281219</v>
+        <v>551.1136400016214</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>554.5463867264467</v>
+        <v>554.6172064646652</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>556.7369782512372</v>
+        <v>556.8993101512083</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>557.8025157316484</v>
+        <v>558.0180899596361</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>561.2622340288498</v>
+        <v>561.4932624009548</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>568.2039494100992</v>
+        <v>568.4095410791493</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>574.573621315756</v>
+        <v>574.7078052145762</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>577.0823368824583</v>
+        <v>577.1062225156419</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>581.3292247892294</v>
+        <v>581.1954094445325</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>587.637115834382</v>
+        <v>587.2539790875546</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>594.5343497615079</v>
+        <v>593.9696277359318</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>601.267786728928</v>
+        <v>600.9091251693396</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>606.8435144656701</v>
+        <v>606.7677192061186</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>610.4831442134262</v>
+        <v>610.598763666618</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>613.8260619639066</v>
+        <v>614.0790587294306</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>617.6379206745532</v>
+        <v>617.9739784067528</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>622.4646662706128</v>
+        <v>622.8213315593453</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>634.2257825632786</v>
+        <v>634.5482805635044</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>645.3943499391522</v>
+        <v>645.6064961414293</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>656.2043759594497</v>
+        <v>656.2465122721642</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>670.0896975115515</v>
+        <v>669.8815476482313</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>685.7003371377247</v>
+        <v>685.0880157457935</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>703.1764001055443</v>
+        <v>702.25974940986</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>723.1299543228974</v>
+        <v>722.5420358024676</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>747.3669845702577</v>
+        <v>747.2482916220488</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>774.5155696814032</v>
+        <v>774.730471285407</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>804.2292998427561</v>
+        <v>804.7018528553308</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>839.3606009075162</v>
+        <v>840.0044135941281</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>877.0528717072335</v>
+        <v>877.7614935819336</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>913.6201410325001</v>
+        <v>914.2884985484854</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>950.9273722761549</v>
+        <v>951.3545316809923</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1027.515358101128</v>
+        <v>1027.63341391512</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1056.2110991003046</v>
+        <v>1055.7547333990588</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1114.4354248712082</v>
+        <v>1113.05709713664</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1174.4363768555722</v>
+        <v>1172.30812953402</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1240.968480419985</v>
+        <v>1239.57214336273</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1318.6273164016595</v>
+        <v>1318.3512850551322</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1408.9616798046231</v>
+        <v>1409.5276397355465</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1512.407003107247</v>
+        <v>1513.6712621657084</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1633.855455552202</v>
+        <v>1635.6318955602885</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1758.5343709101671</v>
+        <v>1760.5546466870276</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1877.2735766744977</v>
+        <v>1879.199190900733</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1988.6797934208942</v>
+        <v>1989.9963677888893</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2169.316301447427</v>
+        <v>2169.6635963101958</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2333.612905005227</v>
+        <v>2332.237171116431</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2492.1001863873153</v>
+        <v>2487.7890446280003</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2640.0154818054207</v>
+        <v>2633.320324219057</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2793.1254930051073</v>
+        <v>2788.739153160414</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2953.38078941416</v>
+        <v>2952.5467124488628</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3136.9755985234046</v>
+        <v>3138.786401806243</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3343.29189121598</v>
+        <v>3347.2646033944475</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3549.4179928841936</v>
+        <v>3554.8914004222956</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3739.6720445872347</v>
+        <v>3745.7763366553477</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3916.2035041431113</v>
+        <v>3921.8575345357367</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4102.634864943294</v>
+        <v>4106.606289883051</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4344.022849114386</v>
+        <v>4345.002253612186</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>4554.4545277216685</v>
+        <v>4550.7391792290555</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4756.336224665369</v>
+        <v>4749.072845989742</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,15 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>5005.553057417298</v>
+        <v>4983.4361902674</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45778.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5203.551728882333</v>
       </c>
     </row>
   </sheetData>

--- a/kirama.xlsx
+++ b/kirama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>399.9805171186254</v>
+        <v>400.03684638578886</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>401.00227402363623</v>
+        <v>401.0143647074706</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>403.27137941007584</v>
+        <v>403.2223072512768</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>406.26790426463054</v>
+        <v>406.1236393598593</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>409.6997298157967</v>
+        <v>409.48454645864376</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>413.4346081894154</v>
+        <v>413.2900592747796</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>416.58570060265333</v>
+        <v>416.5397495185833</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>418.85089631196666</v>
+        <v>418.8708437857242</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>420.98593224834536</v>
+        <v>421.0534212630754</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>423.65024046819906</v>
+        <v>423.7465284942662</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>427.0813310465609</v>
+        <v>427.187393925746</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>432.0776205888526</v>
+        <v>432.1735466605991</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>436.40696010028233</v>
+        <v>436.4706431831843</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>437.8776618250837</v>
+        <v>437.888192815438</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>440.1297580806591</v>
+        <v>440.0672301338802</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>444.1234917640929</v>
+        <v>443.9463339884137</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>448.7105664106498</v>
+        <v>448.44837218908896</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>452.9512007253856</v>
+        <v>452.778104219224</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>456.9188739840417</v>
+        <v>456.8690837804134</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>460.70673040698097</v>
+        <v>460.7399231079029</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>463.9067349120976</v>
+        <v>463.9999756736454</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>466.3387382653946</v>
+        <v>466.46785729450886</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>469.5959380486496</v>
+        <v>469.7363713055897</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>474.187337279034</v>
+        <v>474.31318645853725</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>478.72890890777927</v>
+        <v>478.8116326779212</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>481.75858238951463</v>
+        <v>481.770829433613</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>484.7290121328696</v>
+        <v>484.6440701491299</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>488.79887532688423</v>
+        <v>488.56101952008726</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>493.6575023245392</v>
+        <v>493.3070873391932</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>498.9116416597362</v>
+        <v>498.6838523530931</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>503.91330272269585</v>
+        <v>503.85464276535174</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>507.95544291376285</v>
+        <v>508.0111414223185</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>511.1671912428488</v>
+        <v>511.30545913219845</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>513.3959209199228</v>
+        <v>513.5830580966452</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>516.3986091279206</v>
+        <v>516.6002542687496</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>521.6911745129131</v>
+        <v>521.8713816099713</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>526.7171199806872</v>
+        <v>526.8356712573292</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>529.1359022430561</v>
+        <v>529.1540613947263</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>532.9675171961084</v>
+        <v>532.847485777717</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>537.940997187011</v>
+        <v>537.6026953194798</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>542.602378686267</v>
+        <v>542.1048485720013</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>546.94467475911</v>
+        <v>546.6264054862986</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>551.1136400016214</v>
+        <v>551.040052992814</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>554.6172064646652</v>
+        <v>554.7087194039618</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>556.8993101512083</v>
+        <v>557.1094066177179</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>558.0180899596361</v>
+        <v>558.2975525750044</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>561.4932624009548</v>
+        <v>561.7929553622729</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>568.4095410791493</v>
+        <v>568.6777250923215</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>574.7078052145762</v>
+        <v>574.8854485566015</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>577.1062225156419</v>
+        <v>577.1361283061791</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>581.1954094445325</v>
+        <v>581.0221797737614</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>587.2539790875546</v>
+        <v>586.7589650082829</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>593.9696277359318</v>
+        <v>593.2386400434971</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>600.9091251693396</v>
+        <v>600.4444270855291</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>606.7677192061186</v>
+        <v>606.6691856905078</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>610.598763666618</v>
+        <v>610.7482461432219</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>614.0790587294306</v>
+        <v>614.407102796601</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>617.9739784067528</v>
+        <v>618.4081001716065</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>622.8213315593453</v>
+        <v>623.2859851910763</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>634.5482805635044</v>
+        <v>634.9671156198625</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>645.6064961414293</v>
+        <v>645.8873529457145</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>656.2465122721642</v>
+        <v>656.2990436368658</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>669.8815476482313</v>
+        <v>669.6118536743845</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>685.0880157457935</v>
+        <v>684.2969709357542</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>702.25974940986</v>
+        <v>701.0736230820107</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>722.5420358024676</v>
+        <v>721.7804694111508</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>747.2482916220488</v>
+        <v>747.0939748830285</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>774.730471285407</v>
+        <v>775.0084189819383</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>804.7018528553308</v>
+        <v>805.3138538309156</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>840.0044135941281</v>
+        <v>840.8390533520653</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>877.7614935819336</v>
+        <v>878.6836401530771</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>914.2884985484854</v>
+        <v>915.1440661093438</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>951.3545316809923</v>
+        <v>951.9476191161244</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1027.63341391512</v>
+        <v>1027.7479280344921</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1055.7547333990588</v>
+        <v>1055.1852164152874</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1113.05709713664</v>
+        <v>1111.2692889689663</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1172.30812953402</v>
+        <v>1169.5558800001586</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1239.57214336273</v>
+        <v>1237.7642103651563</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1318.3512850551322</v>
+        <v>1317.9926780601854</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1409.5276397355465</v>
+        <v>1410.260253507967</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1513.6712621657084</v>
+        <v>1515.30979122894</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1635.6318955602885</v>
+        <v>1637.9360561011638</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1760.5546466870276</v>
+        <v>1763.179534016068</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1879.199190900733</v>
+        <v>1881.6889443820635</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1989.9963677888893</v>
+        <v>1991.750372157725</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2169.6635963101958</v>
+        <v>2170.0870516979558</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2332.237171116431</v>
+        <v>2330.46031674772</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2487.7890446280003</v>
+        <v>2482.2182398159066</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2633.320324219057</v>
+        <v>2624.6670180428982</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2788.739153160414</v>
+        <v>2783.062034525382</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2952.5467124488628</v>
+        <v>2951.463625858748</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3138.786401806243</v>
+        <v>3141.1324864849144</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3347.2646033944475</v>
+        <v>3352.4179787266794</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3554.8914004222956</v>
+        <v>3561.996774730675</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3745.7763366553477</v>
+        <v>3753.6996131533447</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3921.8575345357367</v>
+        <v>3929.2138546443452</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4106.606289883051</v>
+        <v>4111.803921295672</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4345.002253612186</v>
+        <v>4346.259575634622</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>4550.7391792290555</v>
+        <v>4545.924494635945</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4749.072845989742</v>
+        <v>4739.68539264469</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>4983.4361902674</v>
+        <v>4954.909879372769</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,7 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5203.551728882333</v>
+        <v>5107.1737905574255</v>
       </c>
     </row>
   </sheetData>

--- a/kirama.xlsx
+++ b/kirama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>400.03684638578886</v>
+        <v>399.9451483529709</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>401.0143647074706</v>
+        <v>400.97785064921555</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>403.2223072512768</v>
+        <v>403.2681885951473</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>406.1236393598593</v>
+        <v>406.2953759602353</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>409.48454645864376</v>
+        <v>409.7686035328709</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>413.2900592747796</v>
+        <v>413.5250627789402</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>416.5397495185833</v>
+        <v>416.6414256847012</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>418.8708437857242</v>
+        <v>418.86385088212944</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>421.0534212630754</v>
+        <v>420.97016341024465</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>423.7465284942662</v>
+        <v>423.61435808026965</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>427.187393925746</v>
+        <v>427.03383715154837</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>432.1735466605991</v>
+        <v>432.0279317082196</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>436.4706431831843</v>
+        <v>436.36528055552503</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>437.888192815438</v>
+        <v>437.85051427445273</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>440.0672301338802</v>
+        <v>440.1277610670388</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>443.9463339884137</v>
+        <v>444.1584081705277</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>448.44837218908896</v>
+        <v>448.7955120589555</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>452.778104219224</v>
+        <v>453.0616794974514</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>456.8690837804134</v>
+        <v>456.9857224245096</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>460.7399231079029</v>
+        <v>460.72003803747435</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>463.9999756736454</v>
+        <v>463.8837559857978</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>466.46785729450886</v>
+        <v>466.2903920991165</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>469.7363713055897</v>
+        <v>469.53311217278997</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>474.31318645853725</v>
+        <v>474.1221573502362</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>478.8116326779212</v>
+        <v>478.6743827432388</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>481.770829433613</v>
+        <v>481.7234052616719</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>484.6440701491299</v>
+        <v>484.7275352393827</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>488.56101952008726</v>
+        <v>488.8466892552457</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>493.3070873391932</v>
+        <v>493.77210124224416</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>498.6838523530931</v>
+        <v>499.0599593631624</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>503.85464276535174</v>
+        <v>504.00161387845003</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>508.0111414223185</v>
+        <v>507.97017910399677</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>511.30545913219845</v>
+        <v>511.131945517324</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>513.5830580966452</v>
+        <v>513.3258157417791</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>516.6002542687496</v>
+        <v>516.3087936665306</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>521.8713816099713</v>
+        <v>521.5983576560743</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>526.8356712573292</v>
+        <v>526.6394629167546</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>529.1540613947263</v>
+        <v>529.0860429455253</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>532.847485777717</v>
+        <v>532.9657796656567</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>537.6026953194798</v>
+        <v>538.0096118607293</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>542.1048485720013</v>
+        <v>542.7661371091583</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>546.6264054862986</v>
+        <v>547.155460661513</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>551.040052992814</v>
+        <v>551.2371571973013</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>554.7087194039618</v>
+        <v>554.6345774536127</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>557.1094066177179</v>
+        <v>556.8446976112227</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>558.2975525750044</v>
+        <v>557.9135594143697</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>561.7929553622729</v>
+        <v>561.3604748113124</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>568.6777250923215</v>
+        <v>568.2723940018145</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>574.8854485566015</v>
+        <v>574.5927563998317</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>577.1361283061791</v>
+        <v>577.0322383751572</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>581.0221797737614</v>
+        <v>581.1923854965527</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>586.7589650082829</v>
+        <v>587.3546460258083</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>593.2386400434971</v>
+        <v>594.2112212400937</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>600.4444270855291</v>
+        <v>601.2209501424979</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>606.6691856905078</v>
+        <v>606.9490518813183</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>610.7482461432219</v>
+        <v>610.6208032831457</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>614.407102796601</v>
+        <v>613.9933644284132</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>618.4081001716065</v>
+        <v>617.8104184167361</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>623.2859851910763</v>
+        <v>622.6183897389233</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>634.9671156198625</v>
+        <v>634.3339601725609</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>645.8873529457145</v>
+        <v>645.42723239927</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>656.2990436368658</v>
+        <v>656.1290325414324</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>669.6118536743845</v>
+        <v>669.87547211564</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>684.2969709357542</v>
+        <v>685.2488755903782</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>701.0736230820107</v>
+        <v>702.6528549527578</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>721.7804694111508</v>
+        <v>723.0580574222439</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>747.0939748830285</v>
+        <v>747.5536068754437</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>775.0084189819383</v>
+        <v>774.7645645146765</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>805.3138538309156</v>
+        <v>804.5401910095902</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>840.8390533520653</v>
+        <v>839.6933833857291</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>878.6836401530771</v>
+        <v>877.3593295762729</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>915.1440661093438</v>
+        <v>913.8415277139849</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>951.9476191161244</v>
+        <v>951.0070370598903</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1027.7479280344921</v>
+        <v>1027.3469422833732</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1055.1852164152874</v>
+        <v>1055.7536627324275</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1111.2692889689663</v>
+        <v>1113.4142274018236</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1169.5558800001586</v>
+        <v>1173.222318787701</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1237.7642103651563</v>
+        <v>1240.805924548161</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1317.9926780601854</v>
+        <v>1319.0990934105196</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1410.260253507967</v>
+        <v>1409.6075889163678</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1515.30979122894</v>
+        <v>1513.238149392733</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1637.9360561011638</v>
+        <v>1634.7756105290257</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1763.179534016068</v>
+        <v>1759.4087219092248</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1881.6889443820635</v>
+        <v>1877.928014547008</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1991.750372157725</v>
+        <v>1988.9091000122833</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2170.0870516979558</v>
+        <v>2168.864512567609</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2330.46031674772</v>
+        <v>2332.1847553645885</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2482.2182398159066</v>
+        <v>2488.914603314495</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2624.6670180428982</v>
+        <v>2636.1974347665487</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2783.062034525382</v>
+        <v>2792.6324135832206</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2951.463625858748</v>
+        <v>2954.890562918116</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3141.1324864849144</v>
+        <v>3139.0239646312352</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3352.4179787266794</v>
+        <v>3345.9037897463427</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3561.996774730675</v>
+        <v>3552.2585233514137</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3753.6996131533447</v>
+        <v>3742.315645888375</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3929.2138546443452</v>
+        <v>3918.154114061518</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4111.803921295672</v>
+        <v>4103.326804763811</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4346.259575634622</v>
+        <v>4342.788608269406</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>4545.924494635945</v>
+        <v>4550.557487901399</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4739.68539264469</v>
+        <v>4751.663230529343</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>4954.909879372769</v>
+        <v>4989.300378802307</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,15 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5107.1737905574255</v>
+        <v>5222.188781098782</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45809.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5473.298175340194</v>
       </c>
     </row>
   </sheetData>

--- a/kirama.xlsx
+++ b/kirama.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>399.9451483529709</v>
+        <v>399.9376749055896</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>400.97785064921555</v>
+        <v>400.97229872776506</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>403.2681885951473</v>
+        <v>403.2665446491918</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>406.2953759602353</v>
+        <v>406.2992207466132</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>409.7686035328709</v>
+        <v>409.780861869125</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>413.5250627789402</v>
+        <v>413.5435910291904</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>416.6414256847012</v>
+        <v>416.6536243361211</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>418.86385088212944</v>
+        <v>418.8672754775491</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>420.97016341024465</v>
+        <v>420.9677526184843</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>423.61435808026965</v>
+        <v>423.6077701823804</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>427.03383715154837</v>
+        <v>427.0247235198831</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>432.0279317082196</v>
+        <v>432.0180593649381</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>436.36528055552503</v>
+        <v>436.356514257228</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>437.85051427445273</v>
+        <v>437.84427304291563</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>440.1277610670388</v>
+        <v>440.12616460717743</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>444.1584081705277</v>
+        <v>444.16340973430385</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>448.7955120589555</v>
+        <v>448.8106849578412</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>453.0616794974514</v>
+        <v>453.0843627289082</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>456.9857224245096</v>
+        <v>457.0004398363924</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>460.72003803747435</v>
+        <v>460.72377870638485</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>463.8837559857978</v>
+        <v>463.88012484197054</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>466.2903920991165</v>
+        <v>466.28148751754173</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>469.53311217278997</v>
+        <v>469.52104688041175</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>474.1221573502362</v>
+        <v>474.1092082254809</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>478.6743827432388</v>
+        <v>478.6629294798074</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>481.7234052616719</v>
+        <v>481.71531768924086</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>484.7275352393827</v>
+        <v>484.72566879365525</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>488.8466892552457</v>
+        <v>488.8536268007164</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>493.77210124224416</v>
+        <v>493.79262670851</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>499.0599593631624</v>
+        <v>499.09048553846185</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>504.00161387845003</v>
+        <v>504.0211720472825</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>507.97017910399677</v>
+        <v>507.97465664321584</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>511.131945517324</v>
+        <v>511.126266524138</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>513.3258157417791</v>
+        <v>513.3128848982152</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>516.3087936665306</v>
+        <v>516.291548902441</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>521.5983576560743</v>
+        <v>521.5799361517275</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>526.6394629167546</v>
+        <v>526.6231901582416</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>529.0860429455253</v>
+        <v>529.0746188147356</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>532.9657796656567</v>
+        <v>532.9632356317426</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>538.0096118607293</v>
+        <v>538.0196248627278</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>542.7661371091583</v>
+        <v>542.7955217037282</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>547.155460661513</v>
+        <v>547.1989346978143</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>551.2371571973013</v>
+        <v>551.2646530245595</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>554.6345774536127</v>
+        <v>554.6403159415836</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>556.8446976112227</v>
+        <v>556.8358027631538</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>557.9135594143697</v>
+        <v>557.8942713987673</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>561.3604748113124</v>
+        <v>561.3349962489331</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>568.2723940018145</v>
+        <v>568.245208480082</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>574.5927563998317</v>
+        <v>574.5687088427666</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>577.0322383751572</v>
+        <v>577.01536197607</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>581.1923854965527</v>
+        <v>581.1886032508105</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>587.3546460258083</v>
+        <v>587.3693624429255</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>594.2112212400937</v>
+        <v>594.254623888485</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>601.2209501424979</v>
+        <v>601.2853690573678</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>606.9490518813183</v>
+        <v>606.989579135162</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>610.6208032831457</v>
+        <v>610.6286806289108</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>613.9933644284132</v>
+        <v>613.9793259237728</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>617.8104184167361</v>
+        <v>617.7802701038794</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>622.6183897389233</v>
+        <v>622.5794287184465</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>634.3339601725609</v>
+        <v>634.2915783239205</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>645.42723239927</v>
+        <v>645.3898194648435</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>656.1290325414324</v>
+        <v>656.1023438079621</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>669.87547211564</v>
+        <v>669.869271017287</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>685.2488755903782</v>
+        <v>685.2723896285643</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>702.6528549527578</v>
+        <v>702.7235304786434</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>723.0580574222439</v>
+        <v>723.1647920661802</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>747.5536068754437</v>
+        <v>747.622041126579</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>774.7645645146765</v>
+        <v>774.7775823107112</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>804.5401910095902</v>
+        <v>804.5136187780557</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>839.6933833857291</v>
+        <v>839.6360181554127</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>877.3593295762729</v>
+        <v>877.2819810772007</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>913.8415277139849</v>
+        <v>913.7538581630938</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>951.0070370598903</v>
+        <v>950.9338521545931</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1027.3469422833732</v>
+        <v>1027.2830479992183</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1055.7536627324275</v>
+        <v>1055.7428312967231</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1113.4142274018236</v>
+        <v>1113.4659932668726</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1173.222318787701</v>
+        <v>1173.3867252823068</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1240.805924548161</v>
+        <v>1241.06129166833</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1319.0990934105196</v>
+        <v>1319.2669459258107</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1409.6075889163678</v>
+        <v>1409.639419621219</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1513.238149392733</v>
+        <v>1513.1667213248545</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1634.7756105290257</v>
+        <v>1634.6175701749912</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1759.4087219092248</v>
+        <v>1759.1887426078588</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1877.928014547008</v>
+        <v>1877.6779397935636</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1988.9091000122833</v>
+        <v>1988.6820687784607</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2168.864512567609</v>
+        <v>2168.6870924309196</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2332.1847553645885</v>
+        <v>2332.1406573076697</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2488.914603314495</v>
+        <v>2489.0786203729185</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2636.1974347665487</v>
+        <v>2636.7149712137025</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2792.6324135832206</v>
+        <v>2793.4386391398516</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2954.890562918116</v>
+        <v>2955.4170546564487</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3139.0239646312352</v>
+        <v>3139.1210434667887</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3345.9037897463427</v>
+        <v>3345.678777812965</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3552.2585233514137</v>
+        <v>3551.772252908436</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3742.315645888375</v>
+        <v>3741.6519675698305</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3918.154114061518</v>
+        <v>3917.422374880817</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4103.326804763811</v>
+        <v>4102.650890998736</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4342.788608269406</v>
+        <v>4342.294261824489</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>4550.557487901399</v>
+        <v>4550.430956472987</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4751.663230529343</v>
+        <v>4752.100813042629</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>4989.300378802307</v>
+        <v>4990.164113287092</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,7 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5222.188781098782</v>
+        <v>5224.823653835472</v>
       </c>
     </row>
     <row r="104">
@@ -896,7 +896,7 @@
         <v>45809.0</v>
       </c>
       <c r="B104" t="n">
-        <v>5473.298175340194</v>
+        <v>5482.312943934501</v>
       </c>
     </row>
   </sheetData>
